--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_lava_1_1.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_lava_1_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>zh_CN</t>
   </si>
@@ -31,7 +31,11 @@
     <t>炎熔尝试控制自己对芙蓉的态度，却以失败告终，在蛇屠箱的刺激之下，想要向姐姐道歉的她反而先收到了来自芙蓉的留言。</t>
   </si>
   <si>
-    <t xml:space="preserve">炎熔尝试控制自己对芙蓉的态度，却以失败告终，在蛇屠箱的刺激之下，想要向姐姐道歉的她反而先收到了来自芙蓉的留言。
+    <t xml:space="preserve">ラヴァは、ハイビスカスへの態度を改めようとするが失敗に終わる。その後、クオーラに刺激されて姉に謝ろうと決心したが、それより先にハイビスカスから詫びの手紙があった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lava attempts to manage her attitude towards Hibiscus, but fails in the end. Provoked by Cuora, she looks to apologize to her sister, but is beaten to the punch by a letter from Hibiscus.
 </t>
   </si>
   <si>
@@ -422,10 +426,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
